--- a/IMDB Movies.xlsx
+++ b/IMDB Movies.xlsx
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>La batalla de Argel</t>
+          <t>Viacrucis</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Viacrucis</t>
+          <t>La batalla de Argel</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6398,12 +6398,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Viacrucis</t>
+          <t>La batalla de Argel</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>La batalla de Argel</t>
+          <t>Viacrucis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -11505,7 +11505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11516,7 +11516,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Search Movies with rating 8.2 or higher</t>
+          <t>Search Movies with rating 8.8 or higher</t>
         </is>
       </c>
     </row>
@@ -11787,2926 +11787,95 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>El origen</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.7</t>
+          <t>Search Movies with rating 9.0 or higher</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El señor de los anillos: Las dos torres</t>
+          <t>Sueño de fuga</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El imperio contraataca</t>
+          <t>El padrino</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>Batman: El Caballero de la Noche</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Buenos muchachos</t>
+          <t>El padrino II</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Atrapado sin salida</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Seven, los siete pecados capitales</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Los siete samurais</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>¡Qué bello es vivir!</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1946</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>El silencio de los inocentes</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Ciudad de Dios</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rescatando al soldado Ryan</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>La vida es bella</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Milagros inesperados</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Interestelar</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>La guerra de las galaxias</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Terminator 2: juicio final</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Volver al futuro</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>El viaje de Chihiro</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Psicosis</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>El pianista</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>El perfecto asesino</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Parásitos</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>El rey león</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Gladiador</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Historia americana X</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sospechosos comunes</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Los infiltrados</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>El gran truco</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Casablanca</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1942</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Top Gun: Maverick</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Whiplash: Música y obsesión</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Amigos intocables</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Tiempos modernos</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1936</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Harakiri</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Erase una vez en el oeste</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>La tumba de las luciérnagas</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>La ventana indiscreta</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Alien, el 8° pasajero</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Luces de la ciudad</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1931</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Cinema Paradiso</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Amnesia</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Apocalipsis</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Los cazadores del arca perdida</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Django sin cadenas</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>WALL·E</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>La vida de los otros</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>El ocaso de una vida</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>La patrulla infernal</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>El resplandor</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>El gran dictador</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Testigo de cargo</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Avengers: Infinity War</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Alien 2, el regreso</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Belleza americana</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Dr. Insólito o Cómo aprendí a no preocuparme y amar la bomba</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Batman: El caballero de la noche asciende</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Spider-Man: Un nuevo universo</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Guasón</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Oldboy: Cinco días para vengarse</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Corazón valiente</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Amadeus</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Toy Story</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>El submarino</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Bastardos sin gloria</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>La princesa Mononoke</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Avengers: Endgame</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Érase una vez en América</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Mente indomable</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Réquiem por un sueño</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Toy Story 3</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Your Name.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Cantando bajo la lluvia</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>3 Idiots</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>El regreso del Jedi</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2001: odisea del espacio</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Eterno resplandor de una mente sin recuerdos</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Perros de reserva</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Cielo e infierno</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Cafarnaúm: la ciudad olvidada</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>El ciudadano Kane</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>1941</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Lawrence de Arabia</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Jagten</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Intriga internacional</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>M el maldito</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>1931</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>De entre los muertos</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Amelie</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Naranja mecánica</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Ven y mira</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Cara de guerra</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Pacto de sangre</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>1944</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Piso de soltero</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Caracortada</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Ikiru - Vivir</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>El golpe</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Matar a un ruiseñor</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Taxi Driver</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Los Ángeles al desnudo</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Up, una aventura de altura</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Fuego contra fuego</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Metrópolis</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>1927</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Una separación</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Snatch: Cerdos y diamantes</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Duro de matar</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>La mujer que cantaba</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Indiana Jones y la última cruzada</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Ladrones de bicicletas</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>1948</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Spider-Man: sin camino a casa</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>1917</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Like stars on Earth</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>La caída</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Por unos dólares más</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Batman inicia</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Dangal</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>El chiquillo</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Una Eva y dos Adanes</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Everything Everywhere All at Once</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>El Padre</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>La malvada</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Green Book: Una amistad sin fronteras</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>El lobo de Wall Street</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Juicio en Nuremberg</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Los imperdonables</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Casino</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Ran</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>El laberinto del fauno</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Petróleo sangriento</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>El sexto sentido</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Una mente brillante</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Monty Python and the Holy Grail</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>The Truman Show: Historia de una vida</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>8.2</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -14721,7 +11890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14732,46 +11901,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Search Movies from the year 2010</t>
+          <t>Search Movies from the year 2012</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El origen</t>
+          <t>Django sin cadenas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Toy Story 3</t>
+          <t>Batman: El caballero de la noche asciende</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14783,66 +11952,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La mujer que cantaba</t>
+          <t>Jagten</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>La isla siniestra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cómo entrenar a tu dragón</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>

--- a/IMDB Movies.xlsx
+++ b/IMDB Movies.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="IMDB Top 250 Movies" sheetId="1" state="visible" r:id="rId1"/>
@@ -11505,7 +11505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11516,7 +11516,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Search Movies with rating 8.8 or higher</t>
+          <t>Search Movies with rating 8.5 or higher</t>
         </is>
       </c>
     </row>
@@ -11787,95 +11787,3923 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Search Movies with rating 9.0 or higher</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>El origen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sueño de fuga</t>
+          <t>El señor de los anillos: Las dos torres</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El padrino</t>
+          <t>El imperio contraataca</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Batman: El Caballero de la Noche</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Buenos muchachos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Atrapado sin salida</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Seven, los siete pecados capitales</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Los siete samurais</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>¡Qué bello es vivir!</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>El silencio de los inocentes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ciudad de Dios</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rescatando al soldado Ryan</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>La vida es bella</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Milagros inesperados</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Interestelar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>La guerra de las galaxias</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Terminator 2: juicio final</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Volver al futuro</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>El viaje de Chihiro</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Psicosis</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>El pianista</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>El perfecto asesino</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Parásitos</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>El rey león</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gladiador</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Historia americana X</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sospechosos comunes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Los infiltrados</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>El gran truco</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Casablanca</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Whiplash: Música y obsesión</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Amigos intocables</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Search Movies with rating 8.2 or higher</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sueño de fuga</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>El padrino</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Batman: El Caballero de la Noche</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>El padrino II</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>1974</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>12 hombres en pugna</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>La lista de Schindler</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>El señor de los anillos: El retorno del rey</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tiempos violentos</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>El señor de los anillos: La comunidad del anillo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>El bueno, el malo y el feo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Forrest Gump</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>El club de la pelea</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>El origen</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>El señor de los anillos: Las dos torres</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>El imperio contraataca</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Matrix</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Buenos muchachos</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Atrapado sin salida</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Seven, los siete pecados capitales</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Los siete samurais</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>¡Qué bello es vivir!</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>El silencio de los inocentes</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ciudad de Dios</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rescatando al soldado Ryan</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>La vida es bella</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Milagros inesperados</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Interestelar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>La guerra de las galaxias</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Terminator 2: juicio final</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Volver al futuro</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>El viaje de Chihiro</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Psicosis</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>El pianista</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>El perfecto asesino</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Parásitos</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>El rey león</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gladiador</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Historia americana X</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sospechosos comunes</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Los infiltrados</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>El gran truco</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Casablanca</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Whiplash: Música y obsesión</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Amigos intocables</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Tiempos modernos</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Harakiri</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Erase una vez en el oeste</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>La tumba de las luciérnagas</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>La ventana indiscreta</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Alien, el 8° pasajero</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Luces de la ciudad</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Cinema Paradiso</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Amnesia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Apocalipsis</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Los cazadores del arca perdida</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Django sin cadenas</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>WALL·E</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>La vida de los otros</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>El ocaso de una vida</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>La patrulla infernal</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>El resplandor</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>El gran dictador</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Testigo de cargo</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Avengers: Infinity War</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Alien 2, el regreso</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Belleza americana</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Dr. Insólito o Cómo aprendí a no preocuparme y amar la bomba</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Batman: El caballero de la noche asciende</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Spider-Man: Un nuevo universo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Guasón</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Oldboy: Cinco días para vengarse</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Corazón valiente</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Amadeus</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Toy Story</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>El submarino</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Bastardos sin gloria</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>La princesa Mononoke</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Avengers: Endgame</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Érase una vez en América</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Mente indomable</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Réquiem por un sueño</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Toy Story 3</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Your Name.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cantando bajo la lluvia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3 Idiots</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>El regreso del Jedi</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2001: odisea del espacio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Eterno resplandor de una mente sin recuerdos</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Perros de reserva</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cielo e infierno</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cafarnaúm: la ciudad olvidada</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>El ciudadano Kane</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Lawrence de Arabia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Jagten</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Intriga internacional</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>M el maldito</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>De entre los muertos</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Amelie</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Naranja mecánica</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ven y mira</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Cara de guerra</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pacto de sangre</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Piso de soltero</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Caracortada</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Ikiru - Vivir</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>El golpe</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Matar a un ruiseñor</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Taxi Driver</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Los Ángeles al desnudo</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Up, una aventura de altura</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Fuego contra fuego</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Metrópolis</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Una separación</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Snatch: Cerdos y diamantes</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Duro de matar</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>La mujer que cantaba</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Indiana Jones y la última cruzada</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Ladrones de bicicletas</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Spider-Man: sin camino a casa</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Like stars on Earth</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>La caída</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Por unos dólares más</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Batman inicia</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Dangal</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>El chiquillo</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Una Eva y dos Adanes</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Everything Everywhere All at Once</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>El Padre</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>La malvada</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Green Book: Una amistad sin fronteras</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>El lobo de Wall Street</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Juicio en Nuremberg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Los imperdonables</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ran</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>El laberinto del fauno</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Petróleo sangriento</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>El sexto sentido</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Una mente brillante</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Monty Python and the Holy Grail</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>The Truman Show: Historia de una vida</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -11890,7 +15718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11901,73 +15729,183 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Search Movies from the year 2012</t>
+          <t>Search Movies from the year 1995</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Django sin cadenas</t>
+          <t>Seven, los siete pecados capitales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batman: El caballero de la noche asciende</t>
+          <t>Sospechosos comunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jagten</t>
+          <t>Corazón valiente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Toy Story</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fuego contra fuego</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antes del amanecer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La haine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>

--- a/IMDB Movies.xlsx
+++ b/IMDB Movies.xlsx
@@ -4,10 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="IMDB Top 250 Movies" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="My movie preferences" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Top 250 Movies Descending" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6723,4 +6725,6003 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Movies I might like</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sueño de fuga</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>La lista de Schindler</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forrest Gump</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Matrix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>¡Qué bello es vivir!</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Milagros inesperados</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>El viaje de Chihiro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>El rey león</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>El gran truco</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tiempos modernos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Movies I might like</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>El rey león</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Guasón</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parque jurásico</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Everything Everywhere All at Once</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Caballero sin espada</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Piratas del Caribe - La maldición del Perla Negra</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sueño de fuga</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ladrones de bicicletas</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Juicio en Nuremberg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Search # 1 and only</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>La bella y la bestia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Historias cruzadas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jai Bhim</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gandhi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aladdín</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The Handmaiden</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La novicia rebelde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sucedió una noche</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Babam ve Oglum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La vida de Brian</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dersu Uzala</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>El pecado compartido</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La haine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Los 400 golpes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Piratas del Caribe - La maldición del Perla Negra</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amores perros</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La leyenda del indomable</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Siempre a tu lado</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>La batalla de Argel</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Viacrucis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rebeca, una mujer inolvidable</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ser o no ser</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Los increíbles</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Lo mejor de nuestra vida</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Antes del atardecer</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>El exorcista</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ratatouille</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hechizo del tiempo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Logan: Wolverine</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>El mago de Oz</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Poder que mata</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Camino salvaje</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rush: Pasión y gloria</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>En primera plana</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Terminator</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cuenta conmigo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Contra lo imposible</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pelotón</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pather Panchali</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tôkyô monogatari</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>La sociedad de los poetas muertos</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hotel Ruanda</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>La passion de Jeanne d'Arc</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tiburón</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Monsters, Inc.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mary and Max</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mad Max: Furia en el camino</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cómo entrenar a tu dragón</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Identidad peligrosa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Relatos salvajes</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>El séptimo sello</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Klaus</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hasta el último hombre</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Salinui chueok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sherlock Jr.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Barry Lyndon</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>El salario del miedo</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Caballero sin espada</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>El gran hotel Budapest</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>En el nombre del padre</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Harry Potter y las reliquias de la muerte 2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>El francotirador</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Antes del amanecer</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Las fresas silvestres</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Perdida</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>El general</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>12 años esclavo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ben-Hur</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Los niños del cielo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>El tercer hombre</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nido de ratas</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Atrápame si puedes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Blade Runner</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>La quimera del oro</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Golpes del destino</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Intriga</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mi vecino Totoro</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fargo, secuestro voluntario</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>La última pelea</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Gran Torino</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>La vida en el abismo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Tres anuncios por un crimen</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>El increíble castillo vagabundo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>El puente sobre el río Kwai</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>El secreto de sus ojos</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Con M de Muerte</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Juegos, trampas y dos armas humeantes</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>La cosa del otro mundo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Intensa Mente</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>V de Venganza</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lo que el viento se llevó</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Barrio Chino</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>El toro salvaje</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>El hombre elefante</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Buscando a Nemo</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sin lugar para los débiles</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Kill Bill Vol. 1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Parque jurásico</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>El gran escape</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Rashomon</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>La isla siniestra</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>El tesoro de la Sierra Madre</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Yojimbo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>The Truman Show: Historia de una vida</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Monty Python and the Holy Grail</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Una mente brillante</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>El sexto sentido</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Petróleo sangriento</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>El laberinto del fauno</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ran</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Los imperdonables</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Juicio en Nuremberg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>El lobo de Wall Street</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Green Book: Una amistad sin fronteras</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>La malvada</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>El Padre</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Everything Everywhere All at Once</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Una Eva y dos Adanes</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>El chiquillo</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Dangal</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Batman inicia</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Por unos dólares más</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>La caída</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Like stars on Earth</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Spider-Man: sin camino a casa</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ladrones de bicicletas</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Indiana Jones y la última cruzada</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>La mujer que cantaba</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Duro de matar</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Snatch: Cerdos y diamantes</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Una separación</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Metrópolis</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Fuego contra fuego</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Up, una aventura de altura</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Los Ángeles al desnudo</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Taxi Driver</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Matar a un ruiseñor</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>El golpe</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Ikiru - Vivir</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Caracortada</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Piso de soltero</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Pacto de sangre</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Cara de guerra</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ven y mira</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Naranja mecánica</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Amelie</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>De entre los muertos</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Intriga internacional</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>M el maldito</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Jagten</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Lawrence de Arabia</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>El ciudadano Kane</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Cafarnaúm: la ciudad olvidada</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cielo e infierno</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Perros de reserva</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Eterno resplandor de una mente sin recuerdos</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2001: odisea del espacio</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>El regreso del Jedi</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3 Idiots</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cantando bajo la lluvia</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Your Name.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Toy Story 3</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Réquiem por un sueño</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Mente indomable</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Érase una vez en América</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Avengers: Endgame</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>La princesa Mononoke</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Bastardos sin gloria</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>El submarino</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Toy Story</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Amadeus</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Corazón valiente</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Oldboy: Cinco días para vengarse</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Guasón</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Spider-Man: Un nuevo universo</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Batman: El caballero de la noche asciende</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Dr. Insólito o Cómo aprendí a no preocuparme y amar la bomba</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Belleza americana</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Alien 2, el regreso</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Avengers: Infinity War</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Testigo de cargo</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>El gran dictador</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>El resplandor</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>La patrulla infernal</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>El ocaso de una vida</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>La vida de los otros</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>WALL·E</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Django sin cadenas</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Los cazadores del arca perdida</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Apocalipsis</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Amnesia</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Cinema Paradiso</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Luces de la ciudad</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Alien, el 8° pasajero</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>La ventana indiscreta</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>La tumba de las luciérnagas</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Erase una vez en el oeste</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Harakiri</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Tiempos modernos</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Amigos intocables</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Whiplash: Música y obsesión</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Casablanca</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>El gran truco</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Los infiltrados</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Sospechosos comunes</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Historia americana X</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Gladiador</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>El rey león</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Parásitos</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>El perfecto asesino</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>El pianista</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Psicosis</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>El viaje de Chihiro</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Volver al futuro</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Terminator 2: juicio final</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>La guerra de las galaxias</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Interestelar</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Milagros inesperados</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>La vida es bella</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Rescatando al soldado Ryan</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Ciudad de Dios</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>El silencio de los inocentes</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>¡Qué bello es vivir!</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Los siete samurais</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Seven, los siete pecados capitales</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Atrapado sin salida</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Buenos muchachos</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Matrix</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>El imperio contraataca</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>El señor de los anillos: Las dos torres</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>El origen</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>El club de la pelea</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Forrest Gump</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>El bueno, el malo y el feo</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>El señor de los anillos: La comunidad del anillo</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Tiempos violentos</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>El señor de los anillos: El retorno del rey</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>La lista de Schindler</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>12 hombres en pugna</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>El padrino II</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Batman: El Caballero de la Noche</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>El padrino</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Sueño de fuga</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>